--- a/biology/Botanique/Actinorhize/Actinorhize.xlsx
+++ b/biology/Botanique/Actinorhize/Actinorhize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les actinorhizes sont des nodosités fixatrices d'azote qu'on trouve au niveau des racines des plantes angiospermes dites actinorhiziennes. Ces plantes ont la capacité de s'associer avec des bactéries actinomycètes filamenteuses du sol du genre Frankia pour produire des actinorhizes. Ce sont essentiellement des arbres ou arbustes adaptés aux stress édaphiques comme la salinité élevée, les métaux lourds ou les pH extrêmes[1]) telles que :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les actinorhizes sont des nodosités fixatrices d'azote qu'on trouve au niveau des racines des plantes angiospermes dites actinorhiziennes. Ces plantes ont la capacité de s'associer avec des bactéries actinomycètes filamenteuses du sol du genre Frankia pour produire des actinorhizes. Ce sont essentiellement des arbres ou arbustes adaptés aux stress édaphiques comme la salinité élevée, les métaux lourds ou les pH extrêmes) telles que :
 les aulnes,
 des Éricacées,
 des Myricacées (le myrte des marais, Myrica gale)
 des Élaeagnacées (Argousier, olivier de Bohème (Elaeagnus angustifolia).
 D'autres espèces telles que les filaos (Casuarina equisetifolia, Casuarinacées) forment des actinorhizes au niveau du tronc.
 Le nodule est le lieu où se produit la réduction de l'azote en ammoniac qui est ensuite assimilé par la plante sous forme d'acide aminé. Certains nodules peuvent avoir la taille d'une bille, voire d'une balle de baseball.
-Ces symbioses été appelées avant 1978. fixation azotées de plantes non-légumineuses (anglais : nonleguminous nitrogen-fixing plants)[2].
+Ces symbioses été appelées avant 1978. fixation azotées de plantes non-légumineuses (anglais : nonleguminous nitrogen-fixing plants).
 </t>
         </is>
       </c>
@@ -518,7 +530,9 @@
           <t>Classification et origine évolutive</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces actinorhiziennes appartiennent à 3 ordres (Fagales, Cucurbitales, Rosales), 8 familles et 24 genres d'angiospermes. En tout, on compte plus de 200 espèces actinorhiziennes. Le caractère actinorhizien est polyphylétique, puisque ce ne sont pas toutes les espèces d'une même famille et même d'un même genre qui seront capables de faire une symbiose avec Frankia. Cette capacité symbiotique serait donc apparue indépendamment plusieurs fois au cours de l'évolution. Les plantes actinorhiziennes possèdent cependant un ancêtre commun relativement proche avec les Fabacées, l'autre groupe de plantes fixatrices d'azote qui interagit avec des rhizobium, ce qui se traduit par de nombreuses similarités entre les deux systèmes symbiotiques. Au moins une partie du programme génétique requis pour ces deux symbioses proviendrait de celui des associations de type mycorhizes arbusculaires, beaucoup plus anciennes et répandues.
 </t>
@@ -549,7 +563,9 @@
           <t>Formation du nodule actinorhizien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mécanisme reste encore méconnu dû au fait qu'il n'y a pas de plante modèle chez les espèces actinorhiziennes et que la transformation génétique de Frankia est encore peu maitrisée.
 Pré-infection
@@ -590,7 +606,9 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes actinorhiziennes sont généralement des espèces pionnières adaptées aux sols pauvres ou perturbés. Elles jouent un rôle important dans la colonisation de ces milieux, en préparant l'établissement d'espèces moins robustes. Leur capacité fixatrice d'azote est importante, elles contribuent au niveau global à fixer une quantité d'azote équivalente à celle fixée par les Fabacées. Leur rôle est prépondérant aux latitudes hautes où les Fabacées sont moins nombreuses.
 Les plantes actinorhiziennes jouent donc un rôle très important dans la protection et l'amélioration de la santé des sols. Elles sont très utiles pour la réhabilitation de sols dégradés par les activités humaines. Ces plantes colonisent facilement les sols nus, ce qui permet de lutter contre l'érosion et l'ensablement.
